--- a/Final Report - Draft 2/RedundancyCoding.xlsx
+++ b/Final Report - Draft 2/RedundancyCoding.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24285" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27960" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Types of redundancy</t>
   </si>
   <si>
-    <t>Equation Sign</t>
-  </si>
-  <si>
     <t>Whiley</t>
   </si>
   <si>
@@ -41,40 +38,10 @@
     <t>Weighting</t>
   </si>
   <si>
-    <t>Function Parameter</t>
-  </si>
-  <si>
     <t>Rearranged Equation</t>
   </si>
   <si>
-    <t>(ie 1+2 vs 2 + 1)</t>
-  </si>
-  <si>
-    <t>(ie x=1 vs x=y)</t>
-  </si>
-  <si>
-    <t>Single line declaration vs multi line</t>
-  </si>
-  <si>
-    <t>Exactly the same</t>
-  </si>
-  <si>
-    <t>Different if statement</t>
-  </si>
-  <si>
-    <t>Return type</t>
-  </si>
-  <si>
-    <t>Extra Field Declaration</t>
-  </si>
-  <si>
-    <t>Different Variable Value</t>
-  </si>
-  <si>
     <t>Limited Redundancy</t>
-  </si>
-  <si>
-    <t>Different equation</t>
   </si>
   <si>
     <r>
@@ -104,6 +71,27 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Different Equation Value</t>
+  </si>
+  <si>
+    <t>Different Equation Sign</t>
+  </si>
+  <si>
+    <t>Different Array Values</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>Extra if statement</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Parameters  And Weighting</t>
   </si>
 </sst>
 </file>
@@ -434,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,8 +433,8 @@
     <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -455,139 +443,186 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
+      <c r="A13" t="s">
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <f ca="1">SUM(B4:B14)</f>
+        <v>32</v>
+      </c>
+      <c r="C13" s="2">
+        <f>SUM(C4:C10)</f>
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D4:D10)</f>
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <f>SUM(E4:E10)</f>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <f>SUM(B4:B14)</f>
-        <v>52</v>
+      <c r="A14" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="202" orientation="portrait" r:id="rId1"/>
